--- a/test_signup/Utrecht/NTDS_Amsterdam.xlsx
+++ b/test_signup/Utrecht/NTDS_Amsterdam.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\test_signup\Utrecht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,9 +943,7 @@
         <v>107</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>14</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" t="s">
         <v>109</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>108</v>
@@ -1236,10 +1234,10 @@
         <v>107</v>
       </c>
       <c r="H17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
         <v>109</v>

--- a/test_signup/Utrecht/NTDS_Amsterdam.xlsx
+++ b/test_signup/Utrecht/NTDS_Amsterdam.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\test_signup\Utrecht\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="110">
   <si>
     <t>Andriy</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Jeroen</t>
@@ -724,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +736,7 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -809,11 +806,8 @@
       <c r="W1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -824,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1">
         <v>31</v>
@@ -836,16 +830,16 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -856,24 +850,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -884,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
@@ -894,10 +888,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -908,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1">
         <v>29</v>
@@ -920,13 +914,13 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -937,21 +931,21 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -962,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1">
         <v>32</v>
@@ -974,13 +968,13 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -991,19 +985,19 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1014,27 +1008,27 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1048,21 +1042,21 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1073,21 +1067,21 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1098,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="1">
         <v>23</v>
@@ -1110,13 +1104,13 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1128,15 +1122,15 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="K13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1147,21 +1141,21 @@
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1172,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -1184,13 +1178,13 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1201,20 +1195,20 @@
         <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="1">
         <v>20</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1228,10 +1222,10 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="1">
         <v>24</v>
@@ -1240,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1257,24 +1251,24 @@
         <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
         <v>109</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1288,18 +1282,18 @@
         <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1316,18 +1310,18 @@
         <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1341,20 +1335,20 @@
         <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="1">
         <v>15</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1368,13 +1362,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1391,10 +1385,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="1">
         <v>38</v>
@@ -1403,10 +1397,10 @@
         <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,10 +1417,10 @@
         <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="1">
         <v>11</v>
@@ -1435,10 +1429,10 @@
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1452,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="1">
         <v>16</v>
@@ -1464,10 +1458,10 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1481,24 +1475,24 @@
         <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" t="s">
         <v>109</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>109</v>
-      </c>
-      <c r="L26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1515,16 +1509,16 @@
         <v>18</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1538,10 +1532,10 @@
         <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="1">
         <v>37</v>
@@ -1550,10 +1544,10 @@
         <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1570,18 +1564,18 @@
         <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1598,10 +1592,10 @@
         <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
@@ -1610,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1627,24 +1621,24 @@
         <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" t="s">
         <v>109</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>109</v>
-      </c>
-      <c r="L31" t="s">
-        <v>110</v>
-      </c>
-      <c r="M31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,10 +1655,10 @@
         <v>68</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -1673,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1690,10 +1684,10 @@
         <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="1">
         <v>6</v>
@@ -1702,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1719,16 +1713,16 @@
         <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1742,18 +1736,18 @@
         <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1767,10 +1761,10 @@
         <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" s="1">
         <v>36</v>
@@ -1779,10 +1773,10 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1796,10 +1790,10 @@
         <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" s="1">
         <v>35</v>
@@ -1808,10 +1802,10 @@
         <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1825,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H38" s="1">
         <v>27</v>
@@ -1837,10 +1831,10 @@
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1854,10 +1848,10 @@
         <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1">
         <v>22</v>
@@ -1866,10 +1860,10 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1883,18 +1877,18 @@
         <v>77</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,30 +1896,30 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" t="s">
         <v>109</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>109</v>
-      </c>
-      <c r="L41" t="s">
-        <v>110</v>
-      </c>
-      <c r="M41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1933,30 +1927,30 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
